--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/2021/NANOMILK 1_2021.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/2021/NANOMILK 1_2021.xlsx
@@ -823,7 +823,7 @@
     <t>Chi phí biển bảng</t>
   </si>
   <si>
-    <t>Thanh toán biển Lào Cai (còn nợ 3,935,000)</t>
+    <t xml:space="preserve">Thanh toán biển Lào Cai </t>
   </si>
 </sst>
 </file>
@@ -2227,6 +2227,15 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2236,132 +2245,123 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="28" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2431,6 +2431,33 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2472,33 +2499,6 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2935,16 +2935,16 @@
       <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="351" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="351"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="351"/>
       <c r="I3" s="106"/>
       <c r="J3" s="106"/>
       <c r="K3" s="106"/>
@@ -2956,32 +2956,32 @@
       <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="349" t="s">
+      <c r="A4" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="349" t="s">
+      <c r="B4" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="349" t="s">
+      <c r="C4" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="350" t="s">
+      <c r="D4" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="348" t="s">
+      <c r="E4" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="348"/>
-      <c r="G4" s="348" t="s">
+      <c r="F4" s="354"/>
+      <c r="G4" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="348"/>
+      <c r="H4" s="354"/>
     </row>
     <row r="5" spans="1:17" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="349"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="349"/>
-      <c r="D5" s="350"/>
+      <c r="A5" s="352"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="353"/>
       <c r="E5" s="189" t="s">
         <v>79</v>
       </c>
@@ -4048,8 +4048,8 @@
       <c r="H56" s="109">
         <v>218250</v>
       </c>
-      <c r="K56" s="351"/>
-      <c r="L56" s="352"/>
+      <c r="K56" s="345"/>
+      <c r="L56" s="346"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="91">
@@ -4305,12 +4305,12 @@
       <c r="K68" s="294"/>
     </row>
     <row r="69" spans="1:11" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="345" t="s">
+      <c r="A69" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="346"/>
-      <c r="C69" s="346"/>
-      <c r="D69" s="347"/>
+      <c r="B69" s="349"/>
+      <c r="C69" s="349"/>
+      <c r="D69" s="350"/>
       <c r="E69" s="110">
         <f>SUM(E9:E68)</f>
         <v>57465650.000000007</v>
@@ -4341,11 +4341,11 @@
       <c r="J70" s="112"/>
     </row>
     <row r="71" spans="1:11" s="111" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="353" t="s">
+      <c r="A71" s="347" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="353"/>
-      <c r="C71" s="353"/>
+      <c r="B71" s="347"/>
+      <c r="C71" s="347"/>
       <c r="D71" s="113"/>
       <c r="E71" s="114"/>
       <c r="F71" s="114"/>
@@ -4354,32 +4354,32 @@
       <c r="J71" s="112"/>
     </row>
     <row r="73" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="349" t="s">
+      <c r="A73" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="349" t="s">
+      <c r="B73" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="349" t="s">
+      <c r="C73" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="350" t="s">
+      <c r="D73" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="348" t="s">
+      <c r="E73" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="348"/>
-      <c r="G73" s="348" t="s">
+      <c r="F73" s="354"/>
+      <c r="G73" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="348"/>
+      <c r="H73" s="354"/>
     </row>
     <row r="74" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="349"/>
-      <c r="B74" s="349"/>
-      <c r="C74" s="349"/>
-      <c r="D74" s="350"/>
+      <c r="A74" s="352"/>
+      <c r="B74" s="352"/>
+      <c r="C74" s="352"/>
+      <c r="D74" s="353"/>
       <c r="E74" s="189" t="s">
         <v>79</v>
       </c>
@@ -4434,12 +4434,12 @@
       <c r="H76" s="344"/>
     </row>
     <row r="77" spans="1:11" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="345" t="s">
+      <c r="A77" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="346"/>
-      <c r="C77" s="346"/>
-      <c r="D77" s="347"/>
+      <c r="B77" s="349"/>
+      <c r="C77" s="349"/>
+      <c r="D77" s="350"/>
       <c r="E77" s="110"/>
       <c r="F77" s="110"/>
       <c r="G77" s="110">
@@ -4449,32 +4449,32 @@
       <c r="H77" s="110"/>
     </row>
     <row r="80" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="349" t="s">
+      <c r="A80" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="349" t="s">
+      <c r="B80" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="349" t="s">
+      <c r="C80" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="350" t="s">
+      <c r="D80" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="348" t="s">
+      <c r="E80" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="348"/>
-      <c r="G80" s="348" t="s">
+      <c r="F80" s="354"/>
+      <c r="G80" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="348"/>
+      <c r="H80" s="354"/>
     </row>
     <row r="81" spans="1:14" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="349"/>
-      <c r="B81" s="349"/>
-      <c r="C81" s="349"/>
-      <c r="D81" s="350"/>
+      <c r="A81" s="352"/>
+      <c r="B81" s="352"/>
+      <c r="C81" s="352"/>
+      <c r="D81" s="353"/>
       <c r="E81" s="189" t="s">
         <v>79</v>
       </c>
@@ -4813,12 +4813,12 @@
       </c>
     </row>
     <row r="98" spans="1:8" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="345" t="s">
+      <c r="A98" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="346"/>
-      <c r="C98" s="346"/>
-      <c r="D98" s="347"/>
+      <c r="B98" s="349"/>
+      <c r="C98" s="349"/>
+      <c r="D98" s="350"/>
       <c r="E98" s="110"/>
       <c r="F98" s="110"/>
       <c r="G98" s="110"/>
@@ -4834,32 +4834,32 @@
       <c r="B100" s="309"/>
     </row>
     <row r="101" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="349" t="s">
+      <c r="A101" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="349" t="s">
+      <c r="B101" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C101" s="349" t="s">
+      <c r="C101" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="350" t="s">
+      <c r="D101" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="348" t="s">
+      <c r="E101" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="348"/>
-      <c r="G101" s="348" t="s">
+      <c r="F101" s="354"/>
+      <c r="G101" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H101" s="348"/>
+      <c r="H101" s="354"/>
     </row>
     <row r="102" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="349"/>
-      <c r="B102" s="349"/>
-      <c r="C102" s="349"/>
-      <c r="D102" s="350"/>
+      <c r="A102" s="352"/>
+      <c r="B102" s="352"/>
+      <c r="C102" s="352"/>
+      <c r="D102" s="353"/>
       <c r="E102" s="189" t="s">
         <v>79</v>
       </c>
@@ -5200,12 +5200,12 @@
       <c r="L118" s="99"/>
     </row>
     <row r="119" spans="1:12" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="345" t="s">
+      <c r="A119" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="346"/>
-      <c r="C119" s="346"/>
-      <c r="D119" s="347"/>
+      <c r="B119" s="349"/>
+      <c r="C119" s="349"/>
+      <c r="D119" s="350"/>
       <c r="E119" s="110">
         <f>SUBTOTAL(9,E103:E118)</f>
         <v>57465650.000000007</v>
@@ -5227,32 +5227,32 @@
       <c r="B121" s="309"/>
     </row>
     <row r="122" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="349" t="s">
+      <c r="A122" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B122" s="349" t="s">
+      <c r="B122" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C122" s="349" t="s">
+      <c r="C122" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="350" t="s">
+      <c r="D122" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="348" t="s">
+      <c r="E122" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F122" s="348"/>
-      <c r="G122" s="348" t="s">
+      <c r="F122" s="354"/>
+      <c r="G122" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H122" s="348"/>
+      <c r="H122" s="354"/>
     </row>
     <row r="123" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="349"/>
-      <c r="B123" s="349"/>
-      <c r="C123" s="349"/>
-      <c r="D123" s="350"/>
+      <c r="A123" s="352"/>
+      <c r="B123" s="352"/>
+      <c r="C123" s="352"/>
+      <c r="D123" s="353"/>
       <c r="E123" s="189" t="s">
         <v>79</v>
       </c>
@@ -5305,16 +5305,16 @@
       <c r="H125" s="109">
         <v>218250</v>
       </c>
-      <c r="K125" s="351"/>
-      <c r="L125" s="352"/>
+      <c r="K125" s="345"/>
+      <c r="L125" s="346"/>
     </row>
     <row r="126" spans="1:12" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="345" t="s">
+      <c r="A126" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B126" s="346"/>
-      <c r="C126" s="346"/>
-      <c r="D126" s="347"/>
+      <c r="B126" s="349"/>
+      <c r="C126" s="349"/>
+      <c r="D126" s="350"/>
       <c r="E126" s="110"/>
       <c r="F126" s="110"/>
       <c r="G126" s="110">
@@ -5333,32 +5333,32 @@
       <c r="B128" s="309"/>
     </row>
     <row r="129" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="349" t="s">
+      <c r="A129" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="349" t="s">
+      <c r="B129" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C129" s="349" t="s">
+      <c r="C129" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="350" t="s">
+      <c r="D129" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="348" t="s">
+      <c r="E129" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F129" s="348"/>
-      <c r="G129" s="348" t="s">
+      <c r="F129" s="354"/>
+      <c r="G129" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H129" s="348"/>
+      <c r="H129" s="354"/>
     </row>
     <row r="130" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="349"/>
-      <c r="B130" s="349"/>
-      <c r="C130" s="349"/>
-      <c r="D130" s="350"/>
+      <c r="A130" s="352"/>
+      <c r="B130" s="352"/>
+      <c r="C130" s="352"/>
+      <c r="D130" s="353"/>
       <c r="E130" s="189" t="s">
         <v>79</v>
       </c>
@@ -5686,12 +5686,12 @@
       <c r="K145" s="294"/>
     </row>
     <row r="146" spans="1:11" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="345" t="s">
+      <c r="A146" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B146" s="346"/>
-      <c r="C146" s="346"/>
-      <c r="D146" s="347"/>
+      <c r="B146" s="349"/>
+      <c r="C146" s="349"/>
+      <c r="D146" s="350"/>
       <c r="E146" s="110"/>
       <c r="F146" s="110"/>
       <c r="G146" s="110">
@@ -5710,32 +5710,32 @@
       <c r="B148" s="309"/>
     </row>
     <row r="149" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="349" t="s">
+      <c r="A149" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="349" t="s">
+      <c r="B149" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C149" s="349" t="s">
+      <c r="C149" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="350" t="s">
+      <c r="D149" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="348" t="s">
+      <c r="E149" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F149" s="348"/>
-      <c r="G149" s="348" t="s">
+      <c r="F149" s="354"/>
+      <c r="G149" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="348"/>
+      <c r="H149" s="354"/>
     </row>
     <row r="150" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="349"/>
-      <c r="B150" s="349"/>
-      <c r="C150" s="349"/>
-      <c r="D150" s="350"/>
+      <c r="A150" s="352"/>
+      <c r="B150" s="352"/>
+      <c r="C150" s="352"/>
+      <c r="D150" s="353"/>
       <c r="E150" s="189" t="s">
         <v>79</v>
       </c>
@@ -5790,12 +5790,12 @@
       </c>
     </row>
     <row r="153" spans="1:11" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="345" t="s">
+      <c r="A153" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B153" s="346"/>
-      <c r="C153" s="346"/>
-      <c r="D153" s="347"/>
+      <c r="B153" s="349"/>
+      <c r="C153" s="349"/>
+      <c r="D153" s="350"/>
       <c r="E153" s="110"/>
       <c r="F153" s="110"/>
       <c r="G153" s="110"/>
@@ -5811,32 +5811,32 @@
       <c r="B155" s="309"/>
     </row>
     <row r="156" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="349" t="s">
+      <c r="A156" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="349" t="s">
+      <c r="B156" s="352" t="s">
         <v>84</v>
       </c>
-      <c r="C156" s="349" t="s">
+      <c r="C156" s="352" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="350" t="s">
+      <c r="D156" s="353" t="s">
         <v>5</v>
       </c>
-      <c r="E156" s="348" t="s">
+      <c r="E156" s="354" t="s">
         <v>6</v>
       </c>
-      <c r="F156" s="348"/>
-      <c r="G156" s="348" t="s">
+      <c r="F156" s="354"/>
+      <c r="G156" s="354" t="s">
         <v>7</v>
       </c>
-      <c r="H156" s="348"/>
+      <c r="H156" s="354"/>
     </row>
     <row r="157" spans="1:11" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="349"/>
-      <c r="B157" s="349"/>
-      <c r="C157" s="349"/>
-      <c r="D157" s="350"/>
+      <c r="A157" s="352"/>
+      <c r="B157" s="352"/>
+      <c r="C157" s="352"/>
+      <c r="D157" s="353"/>
       <c r="E157" s="189" t="s">
         <v>79</v>
       </c>
@@ -6061,12 +6061,12 @@
       <c r="L167" s="309"/>
     </row>
     <row r="168" spans="1:12" s="111" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="345" t="s">
+      <c r="A168" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="346"/>
-      <c r="C168" s="346"/>
-      <c r="D168" s="347"/>
+      <c r="B168" s="349"/>
+      <c r="C168" s="349"/>
+      <c r="D168" s="350"/>
       <c r="E168" s="110"/>
       <c r="F168" s="110"/>
       <c r="G168" s="110">
@@ -6099,16 +6099,43 @@
     <filterColumn colId="6" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A168:D168"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A80:A81"/>
@@ -6122,43 +6149,16 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D73:D74"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.37" right="0.21" top="0.36" bottom="0.41" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6271,98 +6271,98 @@
       <c r="P4" s="376"/>
     </row>
     <row r="5" spans="1:16" s="121" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="369" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="382" t="s">
+      <c r="B5" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="381" t="s">
+      <c r="C5" s="369" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="381" t="s">
+      <c r="D5" s="369" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="381"/>
-      <c r="F5" s="378" t="s">
+      <c r="E5" s="369"/>
+      <c r="F5" s="371" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="378"/>
-      <c r="K5" s="378"/>
-      <c r="L5" s="378"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
+      <c r="J5" s="371"/>
+      <c r="K5" s="371"/>
+      <c r="L5" s="371"/>
       <c r="M5" s="377" t="s">
         <v>120</v>
       </c>
       <c r="N5" s="377"/>
       <c r="O5" s="377"/>
-      <c r="P5" s="378" t="s">
+      <c r="P5" s="371" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="121" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="381"/>
-      <c r="B6" s="382"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="381" t="s">
+      <c r="A6" s="369"/>
+      <c r="B6" s="370"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="381" t="s">
+      <c r="E6" s="369" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="381" t="s">
+      <c r="F6" s="369" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="381" t="s">
+      <c r="G6" s="369" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="379" t="s">
+      <c r="H6" s="372" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="379" t="s">
+      <c r="I6" s="372" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="383" t="s">
+      <c r="J6" s="373" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="383"/>
-      <c r="L6" s="379" t="s">
+      <c r="K6" s="373"/>
+      <c r="L6" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="372" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="379" t="s">
+      <c r="N6" s="372" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="379" t="s">
+      <c r="O6" s="372" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="378"/>
+      <c r="P6" s="371"/>
     </row>
     <row r="7" spans="1:16" s="121" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="381"/>
-      <c r="B7" s="382"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
+      <c r="A7" s="369"/>
+      <c r="B7" s="370"/>
+      <c r="C7" s="369"/>
+      <c r="D7" s="369"/>
+      <c r="E7" s="369"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="369"/>
+      <c r="H7" s="372"/>
+      <c r="I7" s="372"/>
       <c r="J7" s="190" t="s">
         <v>82</v>
       </c>
       <c r="K7" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="379"/>
-      <c r="M7" s="379"/>
-      <c r="N7" s="379"/>
-      <c r="O7" s="379"/>
-      <c r="P7" s="378"/>
+      <c r="L7" s="372"/>
+      <c r="M7" s="372"/>
+      <c r="N7" s="372"/>
+      <c r="O7" s="372"/>
+      <c r="P7" s="371"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="183">
@@ -6541,17 +6541,17 @@
       <c r="P11" s="162"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="364">
+      <c r="A12" s="384">
         <v>2416</v>
       </c>
-      <c r="B12" s="366">
+      <c r="B12" s="381">
         <v>44204</v>
       </c>
-      <c r="C12" s="364"/>
-      <c r="D12" s="369" t="s">
+      <c r="C12" s="384"/>
+      <c r="D12" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="364"/>
+      <c r="E12" s="384"/>
       <c r="F12" s="311" t="s">
         <v>158</v>
       </c>
@@ -6582,11 +6582,11 @@
       <c r="P12" s="315"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="368"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="368"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="368"/>
+      <c r="A13" s="385"/>
+      <c r="B13" s="382"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="379"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="165" t="s">
         <v>167</v>
       </c>
@@ -6617,11 +6617,11 @@
       <c r="P13" s="317"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="368"/>
-      <c r="B14" s="372"/>
-      <c r="C14" s="368"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="368"/>
+      <c r="A14" s="385"/>
+      <c r="B14" s="382"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="379"/>
+      <c r="E14" s="385"/>
       <c r="F14" s="165" t="s">
         <v>164</v>
       </c>
@@ -6652,11 +6652,11 @@
       <c r="P14" s="317"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="368"/>
-      <c r="B15" s="372"/>
-      <c r="C15" s="368"/>
-      <c r="D15" s="370"/>
-      <c r="E15" s="368"/>
+      <c r="A15" s="385"/>
+      <c r="B15" s="382"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="379"/>
+      <c r="E15" s="385"/>
       <c r="F15" s="165" t="s">
         <v>174</v>
       </c>
@@ -6687,11 +6687,11 @@
       <c r="P15" s="317"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="365"/>
-      <c r="B16" s="367"/>
-      <c r="C16" s="365"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="365"/>
+      <c r="A16" s="386"/>
+      <c r="B16" s="383"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="380"/>
+      <c r="E16" s="386"/>
       <c r="F16" s="159" t="s">
         <v>155</v>
       </c>
@@ -6972,17 +6972,17 @@
       <c r="P22" s="162"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="364">
+      <c r="A23" s="384">
         <v>2421</v>
       </c>
-      <c r="B23" s="366">
+      <c r="B23" s="381">
         <v>44206</v>
       </c>
-      <c r="C23" s="364"/>
-      <c r="D23" s="364" t="s">
+      <c r="C23" s="384"/>
+      <c r="D23" s="384" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="364"/>
+      <c r="E23" s="384"/>
       <c r="F23" s="311" t="s">
         <v>158</v>
       </c>
@@ -7013,11 +7013,11 @@
       <c r="P23" s="315"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="368"/>
-      <c r="B24" s="372"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="368"/>
+      <c r="A24" s="385"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="385"/>
+      <c r="D24" s="385"/>
+      <c r="E24" s="385"/>
       <c r="F24" s="165" t="s">
         <v>167</v>
       </c>
@@ -7048,11 +7048,11 @@
       <c r="P24" s="317"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="365"/>
-      <c r="B25" s="367"/>
-      <c r="C25" s="365"/>
-      <c r="D25" s="365"/>
-      <c r="E25" s="365"/>
+      <c r="A25" s="386"/>
+      <c r="B25" s="383"/>
+      <c r="C25" s="386"/>
+      <c r="D25" s="386"/>
+      <c r="E25" s="386"/>
       <c r="F25" s="159" t="s">
         <v>164</v>
       </c>
@@ -7216,19 +7216,19 @@
       <c r="P28" s="162"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="364">
+      <c r="A29" s="384">
         <v>2426</v>
       </c>
-      <c r="B29" s="366">
+      <c r="B29" s="381">
         <v>44209</v>
       </c>
-      <c r="C29" s="364" t="s">
+      <c r="C29" s="384" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="364" t="s">
+      <c r="D29" s="384" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="364" t="s">
+      <c r="E29" s="384" t="s">
         <v>199</v>
       </c>
       <c r="F29" s="311" t="s">
@@ -7261,11 +7261,11 @@
       <c r="P29" s="315"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="368"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="368"/>
-      <c r="D30" s="368"/>
-      <c r="E30" s="368"/>
+      <c r="A30" s="385"/>
+      <c r="B30" s="382"/>
+      <c r="C30" s="385"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
       <c r="F30" s="165" t="s">
         <v>164</v>
       </c>
@@ -7296,11 +7296,11 @@
       <c r="P30" s="317"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="365"/>
-      <c r="B31" s="367"/>
-      <c r="C31" s="365"/>
-      <c r="D31" s="365"/>
-      <c r="E31" s="365"/>
+      <c r="A31" s="386"/>
+      <c r="B31" s="383"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="386"/>
+      <c r="E31" s="386"/>
       <c r="F31" s="159" t="s">
         <v>155</v>
       </c>
@@ -7331,17 +7331,17 @@
       <c r="P31" s="319"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="364">
+      <c r="A32" s="384">
         <v>685</v>
       </c>
-      <c r="B32" s="366">
+      <c r="B32" s="381">
         <v>44210</v>
       </c>
-      <c r="C32" s="364"/>
-      <c r="D32" s="364" t="s">
+      <c r="C32" s="384"/>
+      <c r="D32" s="384" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="364" t="s">
+      <c r="E32" s="384" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="311" t="s">
@@ -7374,11 +7374,11 @@
       <c r="P32" s="315"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="368"/>
-      <c r="B33" s="372"/>
-      <c r="C33" s="368"/>
-      <c r="D33" s="368"/>
-      <c r="E33" s="368"/>
+      <c r="A33" s="385"/>
+      <c r="B33" s="382"/>
+      <c r="C33" s="385"/>
+      <c r="D33" s="385"/>
+      <c r="E33" s="385"/>
       <c r="F33" s="165" t="s">
         <v>167</v>
       </c>
@@ -7409,11 +7409,11 @@
       <c r="P33" s="317"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="368"/>
-      <c r="B34" s="372"/>
-      <c r="C34" s="368"/>
-      <c r="D34" s="368"/>
-      <c r="E34" s="368"/>
+      <c r="A34" s="385"/>
+      <c r="B34" s="382"/>
+      <c r="C34" s="385"/>
+      <c r="D34" s="385"/>
+      <c r="E34" s="385"/>
       <c r="F34" s="165" t="s">
         <v>183</v>
       </c>
@@ -7444,11 +7444,11 @@
       <c r="P34" s="317"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372"/>
-      <c r="C35" s="368"/>
-      <c r="D35" s="368"/>
-      <c r="E35" s="368"/>
+      <c r="A35" s="385"/>
+      <c r="B35" s="382"/>
+      <c r="C35" s="385"/>
+      <c r="D35" s="385"/>
+      <c r="E35" s="385"/>
       <c r="F35" s="165" t="s">
         <v>164</v>
       </c>
@@ -7479,11 +7479,11 @@
       <c r="P35" s="317"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="368"/>
-      <c r="B36" s="372"/>
-      <c r="C36" s="368"/>
-      <c r="D36" s="368"/>
-      <c r="E36" s="368"/>
+      <c r="A36" s="385"/>
+      <c r="B36" s="382"/>
+      <c r="C36" s="385"/>
+      <c r="D36" s="385"/>
+      <c r="E36" s="385"/>
       <c r="F36" s="165" t="s">
         <v>174</v>
       </c>
@@ -7514,11 +7514,11 @@
       <c r="P36" s="317"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="368"/>
-      <c r="B37" s="372"/>
-      <c r="C37" s="368"/>
-      <c r="D37" s="368"/>
-      <c r="E37" s="368"/>
+      <c r="A37" s="385"/>
+      <c r="B37" s="382"/>
+      <c r="C37" s="385"/>
+      <c r="D37" s="385"/>
+      <c r="E37" s="385"/>
       <c r="F37" s="165" t="s">
         <v>184</v>
       </c>
@@ -7549,11 +7549,11 @@
       <c r="P37" s="317"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="368"/>
-      <c r="B38" s="372"/>
-      <c r="C38" s="368"/>
-      <c r="D38" s="368"/>
-      <c r="E38" s="368"/>
+      <c r="A38" s="385"/>
+      <c r="B38" s="382"/>
+      <c r="C38" s="385"/>
+      <c r="D38" s="385"/>
+      <c r="E38" s="385"/>
       <c r="F38" s="165" t="s">
         <v>202</v>
       </c>
@@ -7584,11 +7584,11 @@
       <c r="P38" s="317"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="365"/>
-      <c r="B39" s="367"/>
-      <c r="C39" s="365"/>
-      <c r="D39" s="365"/>
-      <c r="E39" s="365"/>
+      <c r="A39" s="386"/>
+      <c r="B39" s="383"/>
+      <c r="C39" s="386"/>
+      <c r="D39" s="386"/>
+      <c r="E39" s="386"/>
       <c r="F39" s="159" t="s">
         <v>155</v>
       </c>
@@ -7619,19 +7619,19 @@
       <c r="P39" s="159"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="364">
+      <c r="A40" s="384">
         <v>2428</v>
       </c>
-      <c r="B40" s="366">
+      <c r="B40" s="381">
         <v>44212</v>
       </c>
-      <c r="C40" s="364" t="s">
+      <c r="C40" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="364" t="s">
+      <c r="D40" s="384" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="364"/>
+      <c r="E40" s="384"/>
       <c r="F40" s="311" t="s">
         <v>158</v>
       </c>
@@ -7662,11 +7662,11 @@
       <c r="P40" s="311"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="365"/>
-      <c r="B41" s="367"/>
-      <c r="C41" s="365"/>
-      <c r="D41" s="365"/>
-      <c r="E41" s="365"/>
+      <c r="A41" s="386"/>
+      <c r="B41" s="383"/>
+      <c r="C41" s="386"/>
+      <c r="D41" s="386"/>
+      <c r="E41" s="386"/>
       <c r="F41" s="164" t="s">
         <v>164</v>
       </c>
@@ -7697,17 +7697,17 @@
       <c r="P41" s="164"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="364">
+      <c r="A42" s="384">
         <v>2429</v>
       </c>
-      <c r="B42" s="366">
+      <c r="B42" s="381">
         <v>44214</v>
       </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="369" t="s">
+      <c r="C42" s="384"/>
+      <c r="D42" s="378" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="364" t="s">
+      <c r="E42" s="384" t="s">
         <v>157</v>
       </c>
       <c r="F42" s="322" t="s">
@@ -7742,11 +7742,11 @@
       <c r="P42" s="322"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="368"/>
-      <c r="B43" s="372"/>
-      <c r="C43" s="368"/>
-      <c r="D43" s="370"/>
-      <c r="E43" s="368"/>
+      <c r="A43" s="385"/>
+      <c r="B43" s="382"/>
+      <c r="C43" s="385"/>
+      <c r="D43" s="379"/>
+      <c r="E43" s="385"/>
       <c r="F43" s="163" t="s">
         <v>158</v>
       </c>
@@ -7777,11 +7777,11 @@
       <c r="P43" s="184"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="368"/>
-      <c r="B44" s="372"/>
-      <c r="C44" s="368"/>
-      <c r="D44" s="370"/>
-      <c r="E44" s="368"/>
+      <c r="A44" s="385"/>
+      <c r="B44" s="382"/>
+      <c r="C44" s="385"/>
+      <c r="D44" s="379"/>
+      <c r="E44" s="385"/>
       <c r="F44" s="163" t="s">
         <v>167</v>
       </c>
@@ -7812,11 +7812,11 @@
       <c r="P44" s="317"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="368"/>
-      <c r="B45" s="372"/>
-      <c r="C45" s="368"/>
-      <c r="D45" s="370"/>
-      <c r="E45" s="368"/>
+      <c r="A45" s="385"/>
+      <c r="B45" s="382"/>
+      <c r="C45" s="385"/>
+      <c r="D45" s="379"/>
+      <c r="E45" s="385"/>
       <c r="F45" s="165" t="s">
         <v>174</v>
       </c>
@@ -7847,11 +7847,11 @@
       <c r="P45" s="165"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="365"/>
-      <c r="B46" s="367"/>
-      <c r="C46" s="365"/>
-      <c r="D46" s="371"/>
-      <c r="E46" s="365"/>
+      <c r="A46" s="386"/>
+      <c r="B46" s="383"/>
+      <c r="C46" s="386"/>
+      <c r="D46" s="380"/>
+      <c r="E46" s="386"/>
       <c r="F46" s="159" t="s">
         <v>155</v>
       </c>
@@ -7970,17 +7970,17 @@
       <c r="P48" s="153"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="357">
+      <c r="A49" s="361">
         <v>2434</v>
       </c>
-      <c r="B49" s="359">
+      <c r="B49" s="364">
         <v>44222</v>
       </c>
-      <c r="C49" s="357"/>
-      <c r="D49" s="355" t="s">
+      <c r="C49" s="361"/>
+      <c r="D49" s="387" t="s">
         <v>207</v>
       </c>
-      <c r="E49" s="357"/>
+      <c r="E49" s="361"/>
       <c r="F49" s="311" t="s">
         <v>158</v>
       </c>
@@ -8011,11 +8011,11 @@
       <c r="P49" s="311"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="358"/>
-      <c r="B50" s="360"/>
-      <c r="C50" s="358"/>
-      <c r="D50" s="356"/>
-      <c r="E50" s="358"/>
+      <c r="A50" s="362"/>
+      <c r="B50" s="366"/>
+      <c r="C50" s="362"/>
+      <c r="D50" s="389"/>
+      <c r="E50" s="362"/>
       <c r="F50" s="328" t="s">
         <v>208</v>
       </c>
@@ -8089,19 +8089,19 @@
       <c r="P51" s="331"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="357">
+      <c r="A52" s="361">
         <v>2438</v>
       </c>
-      <c r="B52" s="359">
+      <c r="B52" s="364">
         <v>44224</v>
       </c>
-      <c r="C52" s="357" t="s">
+      <c r="C52" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="355" t="s">
+      <c r="D52" s="387" t="s">
         <v>211</v>
       </c>
-      <c r="E52" s="357" t="s">
+      <c r="E52" s="361" t="s">
         <v>212</v>
       </c>
       <c r="F52" s="311" t="s">
@@ -8134,11 +8134,11 @@
       <c r="P52" s="311"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="361"/>
-      <c r="B53" s="363"/>
-      <c r="C53" s="361"/>
-      <c r="D53" s="362"/>
-      <c r="E53" s="361"/>
+      <c r="A53" s="363"/>
+      <c r="B53" s="365"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="388"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="191" t="s">
         <v>167</v>
       </c>
@@ -8169,11 +8169,11 @@
       <c r="P53" s="191"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="361"/>
-      <c r="B54" s="363"/>
-      <c r="C54" s="361"/>
-      <c r="D54" s="362"/>
-      <c r="E54" s="361"/>
+      <c r="A54" s="363"/>
+      <c r="B54" s="365"/>
+      <c r="C54" s="363"/>
+      <c r="D54" s="388"/>
+      <c r="E54" s="363"/>
       <c r="F54" s="191" t="s">
         <v>183</v>
       </c>
@@ -8204,11 +8204,11 @@
       <c r="P54" s="191"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="361"/>
-      <c r="B55" s="363"/>
-      <c r="C55" s="361"/>
-      <c r="D55" s="362"/>
-      <c r="E55" s="361"/>
+      <c r="A55" s="363"/>
+      <c r="B55" s="365"/>
+      <c r="C55" s="363"/>
+      <c r="D55" s="388"/>
+      <c r="E55" s="363"/>
       <c r="F55" s="191" t="s">
         <v>164</v>
       </c>
@@ -8239,11 +8239,11 @@
       <c r="P55" s="191"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="361"/>
-      <c r="B56" s="363"/>
-      <c r="C56" s="361"/>
-      <c r="D56" s="362"/>
-      <c r="E56" s="361"/>
+      <c r="A56" s="363"/>
+      <c r="B56" s="365"/>
+      <c r="C56" s="363"/>
+      <c r="D56" s="388"/>
+      <c r="E56" s="363"/>
       <c r="F56" s="191" t="s">
         <v>174</v>
       </c>
@@ -8274,11 +8274,11 @@
       <c r="P56" s="191"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="361"/>
-      <c r="B57" s="363"/>
-      <c r="C57" s="361"/>
-      <c r="D57" s="362"/>
-      <c r="E57" s="361"/>
+      <c r="A57" s="363"/>
+      <c r="B57" s="365"/>
+      <c r="C57" s="363"/>
+      <c r="D57" s="388"/>
+      <c r="E57" s="363"/>
       <c r="F57" s="191" t="s">
         <v>184</v>
       </c>
@@ -8309,11 +8309,11 @@
       <c r="P57" s="191"/>
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="361"/>
-      <c r="B58" s="363"/>
-      <c r="C58" s="361"/>
-      <c r="D58" s="362"/>
-      <c r="E58" s="361"/>
+      <c r="A58" s="363"/>
+      <c r="B58" s="365"/>
+      <c r="C58" s="363"/>
+      <c r="D58" s="388"/>
+      <c r="E58" s="363"/>
       <c r="F58" s="165" t="s">
         <v>202</v>
       </c>
@@ -8344,11 +8344,11 @@
       <c r="P58" s="165"/>
     </row>
     <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="358"/>
-      <c r="B59" s="360"/>
-      <c r="C59" s="358"/>
-      <c r="D59" s="356"/>
-      <c r="E59" s="358"/>
+      <c r="A59" s="362"/>
+      <c r="B59" s="366"/>
+      <c r="C59" s="362"/>
+      <c r="D59" s="389"/>
+      <c r="E59" s="362"/>
       <c r="F59" s="159" t="s">
         <v>155</v>
       </c>
@@ -8422,19 +8422,19 @@
       <c r="P60" s="331"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="357">
+      <c r="A61" s="361">
         <v>2440</v>
       </c>
-      <c r="B61" s="359">
+      <c r="B61" s="364">
         <v>44225</v>
       </c>
-      <c r="C61" s="357" t="s">
+      <c r="C61" s="361" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="357" t="s">
+      <c r="D61" s="361" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="357"/>
+      <c r="E61" s="361"/>
       <c r="F61" s="311" t="s">
         <v>164</v>
       </c>
@@ -8465,11 +8465,11 @@
       <c r="P61" s="311"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="358"/>
-      <c r="B62" s="360"/>
-      <c r="C62" s="358"/>
-      <c r="D62" s="358"/>
-      <c r="E62" s="358"/>
+      <c r="A62" s="362"/>
+      <c r="B62" s="366"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
       <c r="F62" s="159" t="s">
         <v>174</v>
       </c>
@@ -8500,16 +8500,16 @@
       <c r="P62" s="159"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="357">
+      <c r="A63" s="361">
         <v>2441</v>
       </c>
-      <c r="B63" s="359">
+      <c r="B63" s="364">
         <v>44225</v>
       </c>
-      <c r="C63" s="357" t="s">
+      <c r="C63" s="361" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="357" t="s">
+      <c r="D63" s="361" t="s">
         <v>218</v>
       </c>
       <c r="E63" s="336"/>
@@ -8526,15 +8526,15 @@
         <f t="shared" si="0"/>
         <v>675000</v>
       </c>
-      <c r="J63" s="384">
+      <c r="J63" s="355">
         <v>215000</v>
       </c>
-      <c r="K63" s="387"/>
-      <c r="L63" s="384">
+      <c r="K63" s="358"/>
+      <c r="L63" s="355">
         <f>SUM(I63:I72)-J63</f>
         <v>8915000</v>
       </c>
-      <c r="M63" s="384">
+      <c r="M63" s="355">
         <f>L63</f>
         <v>8915000</v>
       </c>
@@ -8543,10 +8543,10 @@
       <c r="P63" s="311"/>
     </row>
     <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="361"/>
-      <c r="B64" s="363"/>
-      <c r="C64" s="361"/>
-      <c r="D64" s="361"/>
+      <c r="A64" s="363"/>
+      <c r="B64" s="365"/>
+      <c r="C64" s="363"/>
+      <c r="D64" s="363"/>
       <c r="E64" s="299"/>
       <c r="F64" s="165" t="s">
         <v>158</v>
@@ -8561,19 +8561,19 @@
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J64" s="385"/>
-      <c r="K64" s="388"/>
-      <c r="L64" s="385"/>
-      <c r="M64" s="385"/>
+      <c r="J64" s="356"/>
+      <c r="K64" s="359"/>
+      <c r="L64" s="356"/>
+      <c r="M64" s="356"/>
       <c r="N64" s="166"/>
       <c r="O64" s="166"/>
       <c r="P64" s="165"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="361"/>
-      <c r="B65" s="363"/>
-      <c r="C65" s="361"/>
-      <c r="D65" s="361"/>
+      <c r="A65" s="363"/>
+      <c r="B65" s="365"/>
+      <c r="C65" s="363"/>
+      <c r="D65" s="363"/>
       <c r="E65" s="299"/>
       <c r="F65" s="165" t="s">
         <v>208</v>
@@ -8588,19 +8588,19 @@
         <f t="shared" si="0"/>
         <v>235000</v>
       </c>
-      <c r="J65" s="385"/>
-      <c r="K65" s="388"/>
-      <c r="L65" s="385"/>
-      <c r="M65" s="385"/>
+      <c r="J65" s="356"/>
+      <c r="K65" s="359"/>
+      <c r="L65" s="356"/>
+      <c r="M65" s="356"/>
       <c r="N65" s="166"/>
       <c r="O65" s="166"/>
       <c r="P65" s="165"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="361"/>
-      <c r="B66" s="363"/>
-      <c r="C66" s="361"/>
-      <c r="D66" s="361"/>
+      <c r="A66" s="363"/>
+      <c r="B66" s="365"/>
+      <c r="C66" s="363"/>
+      <c r="D66" s="363"/>
       <c r="E66" s="299"/>
       <c r="F66" s="165" t="s">
         <v>167</v>
@@ -8615,19 +8615,19 @@
         <f t="shared" si="0"/>
         <v>1395000</v>
       </c>
-      <c r="J66" s="385"/>
-      <c r="K66" s="388"/>
-      <c r="L66" s="385"/>
-      <c r="M66" s="385"/>
+      <c r="J66" s="356"/>
+      <c r="K66" s="359"/>
+      <c r="L66" s="356"/>
+      <c r="M66" s="356"/>
       <c r="N66" s="166"/>
       <c r="O66" s="166"/>
       <c r="P66" s="165"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="361"/>
-      <c r="B67" s="363"/>
-      <c r="C67" s="361"/>
-      <c r="D67" s="361"/>
+      <c r="A67" s="363"/>
+      <c r="B67" s="365"/>
+      <c r="C67" s="363"/>
+      <c r="D67" s="363"/>
       <c r="E67" s="299"/>
       <c r="F67" s="165" t="s">
         <v>183</v>
@@ -8642,19 +8642,19 @@
         <f t="shared" si="0"/>
         <v>475000</v>
       </c>
-      <c r="J67" s="385"/>
-      <c r="K67" s="388"/>
-      <c r="L67" s="385"/>
-      <c r="M67" s="385"/>
+      <c r="J67" s="356"/>
+      <c r="K67" s="359"/>
+      <c r="L67" s="356"/>
+      <c r="M67" s="356"/>
       <c r="N67" s="166"/>
       <c r="O67" s="166"/>
       <c r="P67" s="165"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="361"/>
-      <c r="B68" s="363"/>
-      <c r="C68" s="361"/>
-      <c r="D68" s="361"/>
+      <c r="A68" s="363"/>
+      <c r="B68" s="365"/>
+      <c r="C68" s="363"/>
+      <c r="D68" s="363"/>
       <c r="E68" s="299"/>
       <c r="F68" s="165" t="s">
         <v>164</v>
@@ -8669,19 +8669,19 @@
         <f t="shared" si="0"/>
         <v>1940000</v>
       </c>
-      <c r="J68" s="385"/>
-      <c r="K68" s="388"/>
-      <c r="L68" s="385"/>
-      <c r="M68" s="385"/>
+      <c r="J68" s="356"/>
+      <c r="K68" s="359"/>
+      <c r="L68" s="356"/>
+      <c r="M68" s="356"/>
       <c r="N68" s="166"/>
       <c r="O68" s="166"/>
       <c r="P68" s="165"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="361"/>
-      <c r="B69" s="363"/>
-      <c r="C69" s="361"/>
-      <c r="D69" s="361"/>
+      <c r="A69" s="363"/>
+      <c r="B69" s="365"/>
+      <c r="C69" s="363"/>
+      <c r="D69" s="363"/>
       <c r="E69" s="184"/>
       <c r="F69" s="165" t="s">
         <v>174</v>
@@ -8696,19 +8696,19 @@
         <f t="shared" si="0"/>
         <v>485000</v>
       </c>
-      <c r="J69" s="385"/>
-      <c r="K69" s="388"/>
-      <c r="L69" s="385"/>
-      <c r="M69" s="385"/>
+      <c r="J69" s="356"/>
+      <c r="K69" s="359"/>
+      <c r="L69" s="356"/>
+      <c r="M69" s="356"/>
       <c r="N69" s="166"/>
       <c r="O69" s="166"/>
       <c r="P69" s="165"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="361"/>
-      <c r="B70" s="363"/>
-      <c r="C70" s="361"/>
-      <c r="D70" s="361"/>
+      <c r="A70" s="363"/>
+      <c r="B70" s="365"/>
+      <c r="C70" s="363"/>
+      <c r="D70" s="363"/>
       <c r="E70" s="184"/>
       <c r="F70" s="165" t="s">
         <v>184</v>
@@ -8723,19 +8723,19 @@
         <f t="shared" si="0"/>
         <v>1650000</v>
       </c>
-      <c r="J70" s="385"/>
-      <c r="K70" s="388"/>
-      <c r="L70" s="385"/>
-      <c r="M70" s="385"/>
+      <c r="J70" s="356"/>
+      <c r="K70" s="359"/>
+      <c r="L70" s="356"/>
+      <c r="M70" s="356"/>
       <c r="N70" s="166"/>
       <c r="O70" s="166"/>
       <c r="P70" s="165"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="361"/>
-      <c r="B71" s="363"/>
-      <c r="C71" s="361"/>
-      <c r="D71" s="361"/>
+      <c r="A71" s="363"/>
+      <c r="B71" s="365"/>
+      <c r="C71" s="363"/>
+      <c r="D71" s="363"/>
       <c r="E71" s="184"/>
       <c r="F71" s="165" t="s">
         <v>202</v>
@@ -8750,19 +8750,19 @@
         <f t="shared" si="0"/>
         <v>455000</v>
       </c>
-      <c r="J71" s="385"/>
-      <c r="K71" s="388"/>
-      <c r="L71" s="385"/>
-      <c r="M71" s="385"/>
+      <c r="J71" s="356"/>
+      <c r="K71" s="359"/>
+      <c r="L71" s="356"/>
+      <c r="M71" s="356"/>
       <c r="N71" s="166"/>
       <c r="O71" s="166"/>
       <c r="P71" s="165"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="358"/>
-      <c r="B72" s="360"/>
-      <c r="C72" s="358"/>
-      <c r="D72" s="358"/>
+      <c r="A72" s="362"/>
+      <c r="B72" s="366"/>
+      <c r="C72" s="362"/>
+      <c r="D72" s="362"/>
       <c r="E72" s="164"/>
       <c r="F72" s="159" t="s">
         <v>155</v>
@@ -8777,10 +8777,10 @@
         <f t="shared" si="0"/>
         <v>910000</v>
       </c>
-      <c r="J72" s="386"/>
-      <c r="K72" s="389"/>
-      <c r="L72" s="386"/>
-      <c r="M72" s="386"/>
+      <c r="J72" s="357"/>
+      <c r="K72" s="360"/>
+      <c r="L72" s="357"/>
+      <c r="M72" s="357"/>
       <c r="N72" s="160"/>
       <c r="O72" s="160"/>
       <c r="P72" s="159"/>
@@ -8829,14 +8829,14 @@
       <c r="P73" s="153"/>
     </row>
     <row r="74" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="380" t="s">
+      <c r="A74" s="368" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="380"/>
-      <c r="C74" s="380"/>
-      <c r="D74" s="380"/>
-      <c r="E74" s="380"/>
-      <c r="F74" s="380"/>
+      <c r="B74" s="368"/>
+      <c r="C74" s="368"/>
+      <c r="D74" s="368"/>
+      <c r="E74" s="368"/>
+      <c r="F74" s="368"/>
       <c r="G74" s="129">
         <f>SUM(G8:G73)</f>
         <v>658</v>
@@ -8856,17 +8856,17 @@
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
       <c r="P74" s="130"/>
-      <c r="Q74" s="373"/>
+      <c r="Q74" s="374"/>
     </row>
     <row r="75" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="374" t="s">
+      <c r="A75" s="367" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="374"/>
-      <c r="C75" s="374"/>
-      <c r="D75" s="374"/>
-      <c r="E75" s="374"/>
-      <c r="F75" s="374"/>
+      <c r="B75" s="367"/>
+      <c r="C75" s="367"/>
+      <c r="D75" s="367"/>
+      <c r="E75" s="367"/>
+      <c r="F75" s="367"/>
       <c r="G75" s="129">
         <f>G74</f>
         <v>658</v>
@@ -8883,17 +8883,17 @@
       <c r="N75" s="134"/>
       <c r="O75" s="134"/>
       <c r="P75" s="134"/>
-      <c r="Q75" s="373"/>
+      <c r="Q75" s="374"/>
     </row>
     <row r="76" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="374" t="s">
+      <c r="A76" s="367" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="374"/>
-      <c r="C76" s="374"/>
-      <c r="D76" s="374"/>
-      <c r="E76" s="374"/>
-      <c r="F76" s="374"/>
+      <c r="B76" s="367"/>
+      <c r="C76" s="367"/>
+      <c r="D76" s="367"/>
+      <c r="E76" s="367"/>
+      <c r="F76" s="367"/>
       <c r="G76" s="135" t="s">
         <v>44</v>
       </c>
@@ -8911,14 +8911,14 @@
       <c r="P76" s="136"/>
     </row>
     <row r="77" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="374" t="s">
+      <c r="A77" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="374"/>
-      <c r="C77" s="374"/>
-      <c r="D77" s="374"/>
-      <c r="E77" s="374"/>
-      <c r="F77" s="374"/>
+      <c r="B77" s="367"/>
+      <c r="C77" s="367"/>
+      <c r="D77" s="367"/>
+      <c r="E77" s="367"/>
+      <c r="F77" s="367"/>
       <c r="G77" s="134"/>
       <c r="H77" s="134"/>
       <c r="I77" s="130"/>
@@ -8934,14 +8934,14 @@
       <c r="P77" s="136"/>
     </row>
     <row r="78" spans="1:17" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="374" t="s">
+      <c r="A78" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="374"/>
-      <c r="C78" s="374"/>
-      <c r="D78" s="374"/>
-      <c r="E78" s="374"/>
-      <c r="F78" s="374"/>
+      <c r="B78" s="367"/>
+      <c r="C78" s="367"/>
+      <c r="D78" s="367"/>
+      <c r="E78" s="367"/>
+      <c r="F78" s="367"/>
       <c r="G78" s="134"/>
       <c r="H78" s="134"/>
       <c r="I78" s="130"/>
@@ -9012,15 +9012,61 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="80">
-    <mergeCell ref="J63:J72"/>
-    <mergeCell ref="K63:K72"/>
-    <mergeCell ref="L63:L72"/>
-    <mergeCell ref="M63:M72"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E52:E59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="E32:E39"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="A77:F77"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A74:F74"/>
@@ -9037,61 +9083,15 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E32:E39"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E52:E59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="J63:J72"/>
+    <mergeCell ref="K63:K72"/>
+    <mergeCell ref="L63:L72"/>
+    <mergeCell ref="M63:M72"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="A63:A72"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10447,17 +10447,17 @@
       <c r="C1" s="196"/>
       <c r="D1" s="196"/>
       <c r="E1" s="196"/>
-      <c r="Z1" s="433" t="s">
+      <c r="Z1" s="419" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="434"/>
-      <c r="AB1" s="434"/>
-      <c r="AC1" s="434"/>
-      <c r="AD1" s="434"/>
-      <c r="AE1" s="434"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="434"/>
-      <c r="AH1" s="435"/>
+      <c r="AA1" s="420"/>
+      <c r="AB1" s="420"/>
+      <c r="AC1" s="420"/>
+      <c r="AD1" s="420"/>
+      <c r="AE1" s="420"/>
+      <c r="AF1" s="420"/>
+      <c r="AG1" s="420"/>
+      <c r="AH1" s="421"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="199" t="s">
@@ -10467,19 +10467,19 @@
       <c r="C2" s="200"/>
       <c r="D2" s="200"/>
       <c r="E2" s="200"/>
-      <c r="Z2" s="427" t="s">
+      <c r="Z2" s="413" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="428"/>
-      <c r="AB2" s="428"/>
-      <c r="AC2" s="428"/>
-      <c r="AD2" s="428"/>
-      <c r="AE2" s="429"/>
-      <c r="AF2" s="430" t="s">
+      <c r="AA2" s="414"/>
+      <c r="AB2" s="414"/>
+      <c r="AC2" s="414"/>
+      <c r="AD2" s="414"/>
+      <c r="AE2" s="415"/>
+      <c r="AF2" s="416" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="431"/>
-      <c r="AH2" s="432"/>
+      <c r="AG2" s="417"/>
+      <c r="AH2" s="418"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="199" t="s">
@@ -10489,19 +10489,19 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="78"/>
-      <c r="Z3" s="427" t="s">
+      <c r="Z3" s="413" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="428"/>
-      <c r="AB3" s="428"/>
-      <c r="AC3" s="428"/>
-      <c r="AD3" s="428"/>
-      <c r="AE3" s="429"/>
-      <c r="AF3" s="430" t="s">
+      <c r="AA3" s="414"/>
+      <c r="AB3" s="414"/>
+      <c r="AC3" s="414"/>
+      <c r="AD3" s="414"/>
+      <c r="AE3" s="415"/>
+      <c r="AF3" s="416" t="s">
         <v>98</v>
       </c>
-      <c r="AG3" s="431"/>
-      <c r="AH3" s="432"/>
+      <c r="AG3" s="417"/>
+      <c r="AH3" s="418"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="199" t="s">
@@ -10514,19 +10514,19 @@
       <c r="T4" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="427" t="s">
+      <c r="Z4" s="413" t="s">
         <v>100</v>
       </c>
-      <c r="AA4" s="428"/>
-      <c r="AB4" s="428"/>
-      <c r="AC4" s="428"/>
-      <c r="AD4" s="428"/>
-      <c r="AE4" s="429"/>
-      <c r="AF4" s="430" t="s">
+      <c r="AA4" s="414"/>
+      <c r="AB4" s="414"/>
+      <c r="AC4" s="414"/>
+      <c r="AD4" s="414"/>
+      <c r="AE4" s="415"/>
+      <c r="AF4" s="416" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" s="431"/>
-      <c r="AH4" s="432"/>
+      <c r="AG4" s="417"/>
+      <c r="AH4" s="418"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="199" t="s">
@@ -10536,19 +10536,19 @@
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="Z5" s="414" t="s">
+      <c r="Z5" s="423" t="s">
         <v>103</v>
       </c>
-      <c r="AA5" s="414"/>
-      <c r="AB5" s="414"/>
-      <c r="AC5" s="414"/>
-      <c r="AD5" s="414"/>
-      <c r="AE5" s="414"/>
-      <c r="AF5" s="415" t="s">
+      <c r="AA5" s="423"/>
+      <c r="AB5" s="423"/>
+      <c r="AC5" s="423"/>
+      <c r="AD5" s="423"/>
+      <c r="AE5" s="423"/>
+      <c r="AF5" s="424" t="s">
         <v>104</v>
       </c>
-      <c r="AG5" s="415"/>
-      <c r="AH5" s="415"/>
+      <c r="AG5" s="424"/>
+      <c r="AH5" s="424"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="199"/>
@@ -10556,19 +10556,19 @@
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
-      <c r="Z6" s="427" t="s">
+      <c r="Z6" s="413" t="s">
         <v>124</v>
       </c>
-      <c r="AA6" s="428"/>
-      <c r="AB6" s="428"/>
-      <c r="AC6" s="428"/>
-      <c r="AD6" s="428"/>
-      <c r="AE6" s="429"/>
-      <c r="AF6" s="430" t="s">
+      <c r="AA6" s="414"/>
+      <c r="AB6" s="414"/>
+      <c r="AC6" s="414"/>
+      <c r="AD6" s="414"/>
+      <c r="AE6" s="415"/>
+      <c r="AF6" s="416" t="s">
         <v>121</v>
       </c>
-      <c r="AG6" s="431"/>
-      <c r="AH6" s="432"/>
+      <c r="AG6" s="417"/>
+      <c r="AH6" s="418"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="201"/>
@@ -10578,93 +10578,93 @@
       <c r="E7" s="201"/>
     </row>
     <row r="8" spans="1:40" s="204" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="416" t="s">
+      <c r="A8" s="425" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="416"/>
-      <c r="C8" s="416"/>
-      <c r="D8" s="416"/>
-      <c r="E8" s="416"/>
-      <c r="F8" s="416"/>
-      <c r="G8" s="416"/>
-      <c r="H8" s="416"/>
-      <c r="I8" s="416"/>
-      <c r="J8" s="416"/>
-      <c r="K8" s="416"/>
-      <c r="L8" s="416"/>
-      <c r="M8" s="416"/>
-      <c r="N8" s="416"/>
-      <c r="O8" s="416"/>
-      <c r="P8" s="416"/>
-      <c r="Q8" s="416"/>
-      <c r="R8" s="416"/>
-      <c r="S8" s="416"/>
-      <c r="T8" s="416"/>
-      <c r="U8" s="416"/>
-      <c r="V8" s="416"/>
-      <c r="W8" s="416"/>
-      <c r="X8" s="416"/>
-      <c r="Y8" s="416"/>
-      <c r="Z8" s="416"/>
-      <c r="AA8" s="416"/>
-      <c r="AB8" s="416"/>
-      <c r="AC8" s="416"/>
-      <c r="AD8" s="416"/>
-      <c r="AE8" s="416"/>
-      <c r="AF8" s="416"/>
-      <c r="AG8" s="416"/>
-      <c r="AH8" s="416"/>
-      <c r="AI8" s="416"/>
-      <c r="AJ8" s="416"/>
-      <c r="AK8" s="416"/>
-      <c r="AL8" s="416"/>
-      <c r="AM8" s="416"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="425"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="425"/>
+      <c r="G8" s="425"/>
+      <c r="H8" s="425"/>
+      <c r="I8" s="425"/>
+      <c r="J8" s="425"/>
+      <c r="K8" s="425"/>
+      <c r="L8" s="425"/>
+      <c r="M8" s="425"/>
+      <c r="N8" s="425"/>
+      <c r="O8" s="425"/>
+      <c r="P8" s="425"/>
+      <c r="Q8" s="425"/>
+      <c r="R8" s="425"/>
+      <c r="S8" s="425"/>
+      <c r="T8" s="425"/>
+      <c r="U8" s="425"/>
+      <c r="V8" s="425"/>
+      <c r="W8" s="425"/>
+      <c r="X8" s="425"/>
+      <c r="Y8" s="425"/>
+      <c r="Z8" s="425"/>
+      <c r="AA8" s="425"/>
+      <c r="AB8" s="425"/>
+      <c r="AC8" s="425"/>
+      <c r="AD8" s="425"/>
+      <c r="AE8" s="425"/>
+      <c r="AF8" s="425"/>
+      <c r="AG8" s="425"/>
+      <c r="AH8" s="425"/>
+      <c r="AI8" s="425"/>
+      <c r="AJ8" s="425"/>
+      <c r="AK8" s="425"/>
+      <c r="AL8" s="425"/>
+      <c r="AM8" s="425"/>
       <c r="AN8" s="203"/>
     </row>
     <row r="10" spans="1:40" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="417" t="s">
+      <c r="A10" s="426" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="417" t="s">
+      <c r="B10" s="426" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="417" t="s">
+      <c r="C10" s="426" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="420" t="s">
+      <c r="D10" s="429" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="421"/>
-      <c r="F10" s="421"/>
-      <c r="G10" s="421"/>
-      <c r="H10" s="421"/>
-      <c r="I10" s="421"/>
-      <c r="J10" s="421"/>
-      <c r="K10" s="421"/>
-      <c r="L10" s="421"/>
-      <c r="M10" s="421"/>
-      <c r="N10" s="421"/>
-      <c r="O10" s="421"/>
-      <c r="P10" s="421"/>
-      <c r="Q10" s="421"/>
-      <c r="R10" s="421"/>
-      <c r="S10" s="421"/>
-      <c r="T10" s="421"/>
-      <c r="U10" s="421"/>
-      <c r="V10" s="421"/>
-      <c r="W10" s="421"/>
-      <c r="X10" s="421"/>
-      <c r="Y10" s="421"/>
-      <c r="Z10" s="421"/>
-      <c r="AA10" s="421"/>
-      <c r="AB10" s="421"/>
-      <c r="AC10" s="421"/>
-      <c r="AD10" s="421"/>
-      <c r="AE10" s="421"/>
-      <c r="AF10" s="421"/>
-      <c r="AG10" s="421"/>
-      <c r="AH10" s="421"/>
-      <c r="AI10" s="422" t="s">
+      <c r="E10" s="430"/>
+      <c r="F10" s="430"/>
+      <c r="G10" s="430"/>
+      <c r="H10" s="430"/>
+      <c r="I10" s="430"/>
+      <c r="J10" s="430"/>
+      <c r="K10" s="430"/>
+      <c r="L10" s="430"/>
+      <c r="M10" s="430"/>
+      <c r="N10" s="430"/>
+      <c r="O10" s="430"/>
+      <c r="P10" s="430"/>
+      <c r="Q10" s="430"/>
+      <c r="R10" s="430"/>
+      <c r="S10" s="430"/>
+      <c r="T10" s="430"/>
+      <c r="U10" s="430"/>
+      <c r="V10" s="430"/>
+      <c r="W10" s="430"/>
+      <c r="X10" s="430"/>
+      <c r="Y10" s="430"/>
+      <c r="Z10" s="430"/>
+      <c r="AA10" s="430"/>
+      <c r="AB10" s="430"/>
+      <c r="AC10" s="430"/>
+      <c r="AD10" s="430"/>
+      <c r="AE10" s="430"/>
+      <c r="AF10" s="430"/>
+      <c r="AG10" s="430"/>
+      <c r="AH10" s="430"/>
+      <c r="AI10" s="431" t="s">
         <v>109</v>
       </c>
       <c r="AJ10" s="205"/>
@@ -10674,9 +10674,9 @@
       <c r="AN10" s="208"/>
     </row>
     <row r="11" spans="1:40" s="209" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="418"/>
-      <c r="B11" s="418"/>
-      <c r="C11" s="418"/>
+      <c r="A11" s="427"/>
+      <c r="B11" s="427"/>
+      <c r="C11" s="427"/>
       <c r="D11" s="210">
         <v>1</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="AH11" s="210">
         <v>31</v>
       </c>
-      <c r="AI11" s="422"/>
+      <c r="AI11" s="431"/>
       <c r="AJ11" s="211"/>
       <c r="AK11" s="207"/>
       <c r="AL11" s="207"/>
@@ -10778,9 +10778,9 @@
       <c r="AN11" s="208"/>
     </row>
     <row r="12" spans="1:40" s="215" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="419"/>
-      <c r="B12" s="419"/>
-      <c r="C12" s="419"/>
+      <c r="A12" s="428"/>
+      <c r="B12" s="428"/>
+      <c r="C12" s="428"/>
       <c r="D12" s="210" t="s">
         <v>112</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="AH12" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="AI12" s="422"/>
+      <c r="AI12" s="431"/>
       <c r="AJ12" s="214"/>
       <c r="AN12" s="216"/>
     </row>
@@ -11283,10 +11283,10 @@
       <c r="AN16" s="216"/>
     </row>
     <row r="17" spans="1:40" s="215" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="423" t="s">
+      <c r="A17" s="432" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="424"/>
+      <c r="B17" s="433"/>
       <c r="C17" s="222"/>
       <c r="D17" s="222"/>
       <c r="E17" s="223"/>
@@ -11329,47 +11329,47 @@
       <c r="AN17" s="216"/>
     </row>
     <row r="19" spans="1:40" s="232" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="425"/>
-      <c r="B19" s="425"/>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="425"/>
-      <c r="F19" s="425"/>
-      <c r="G19" s="425"/>
+      <c r="A19" s="434"/>
+      <c r="B19" s="434"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="434"/>
+      <c r="E19" s="434"/>
+      <c r="F19" s="434"/>
+      <c r="G19" s="434"/>
       <c r="H19" s="227"/>
-      <c r="I19" s="426"/>
-      <c r="J19" s="426"/>
-      <c r="K19" s="426"/>
-      <c r="L19" s="426"/>
-      <c r="M19" s="426"/>
+      <c r="I19" s="435"/>
+      <c r="J19" s="435"/>
+      <c r="K19" s="435"/>
+      <c r="L19" s="435"/>
+      <c r="M19" s="435"/>
       <c r="N19" s="228"/>
-      <c r="O19" s="426"/>
-      <c r="P19" s="426"/>
-      <c r="Q19" s="426"/>
-      <c r="R19" s="426"/>
-      <c r="S19" s="426"/>
-      <c r="T19" s="426"/>
-      <c r="U19" s="426"/>
-      <c r="V19" s="426"/>
-      <c r="W19" s="426"/>
-      <c r="X19" s="426"/>
-      <c r="Y19" s="426"/>
+      <c r="O19" s="435"/>
+      <c r="P19" s="435"/>
+      <c r="Q19" s="435"/>
+      <c r="R19" s="435"/>
+      <c r="S19" s="435"/>
+      <c r="T19" s="435"/>
+      <c r="U19" s="435"/>
+      <c r="V19" s="435"/>
+      <c r="W19" s="435"/>
+      <c r="X19" s="435"/>
+      <c r="Y19" s="435"/>
       <c r="Z19" s="229"/>
       <c r="AA19" s="237" t="s">
         <v>12</v>
       </c>
       <c r="AB19" s="230"/>
-      <c r="AC19" s="426"/>
-      <c r="AD19" s="426"/>
-      <c r="AE19" s="426"/>
-      <c r="AF19" s="426"/>
-      <c r="AG19" s="426"/>
-      <c r="AH19" s="426"/>
-      <c r="AI19" s="426"/>
-      <c r="AJ19" s="426"/>
-      <c r="AK19" s="426"/>
-      <c r="AL19" s="426"/>
-      <c r="AM19" s="426"/>
+      <c r="AC19" s="435"/>
+      <c r="AD19" s="435"/>
+      <c r="AE19" s="435"/>
+      <c r="AF19" s="435"/>
+      <c r="AG19" s="435"/>
+      <c r="AH19" s="435"/>
+      <c r="AI19" s="435"/>
+      <c r="AJ19" s="435"/>
+      <c r="AK19" s="435"/>
+      <c r="AL19" s="435"/>
+      <c r="AM19" s="435"/>
       <c r="AN19" s="231"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -11408,131 +11408,131 @@
       <c r="AN34" s="236"/>
     </row>
     <row r="35" spans="3:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="413"/>
-      <c r="H35" s="413"/>
-      <c r="I35" s="413"/>
-      <c r="J35" s="413"/>
-      <c r="K35" s="413"/>
-      <c r="L35" s="413"/>
-      <c r="M35" s="413"/>
-      <c r="N35" s="413"/>
-      <c r="O35" s="413"/>
-      <c r="P35" s="413"/>
-      <c r="Q35" s="413"/>
-      <c r="R35" s="413"/>
-      <c r="S35" s="413"/>
-      <c r="T35" s="413"/>
-      <c r="U35" s="413"/>
-      <c r="V35" s="413"/>
-      <c r="W35" s="413"/>
-      <c r="X35" s="413"/>
+      <c r="G35" s="422"/>
+      <c r="H35" s="422"/>
+      <c r="I35" s="422"/>
+      <c r="J35" s="422"/>
+      <c r="K35" s="422"/>
+      <c r="L35" s="422"/>
+      <c r="M35" s="422"/>
+      <c r="N35" s="422"/>
+      <c r="O35" s="422"/>
+      <c r="P35" s="422"/>
+      <c r="Q35" s="422"/>
+      <c r="R35" s="422"/>
+      <c r="S35" s="422"/>
+      <c r="T35" s="422"/>
+      <c r="U35" s="422"/>
+      <c r="V35" s="422"/>
+      <c r="W35" s="422"/>
+      <c r="X35" s="422"/>
       <c r="AN35" s="236"/>
     </row>
     <row r="36" spans="3:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="413"/>
-      <c r="H36" s="413"/>
-      <c r="I36" s="413"/>
-      <c r="J36" s="413"/>
-      <c r="K36" s="413"/>
-      <c r="L36" s="413"/>
-      <c r="M36" s="413"/>
-      <c r="N36" s="413"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="413"/>
-      <c r="Q36" s="413"/>
-      <c r="R36" s="413"/>
-      <c r="S36" s="413"/>
-      <c r="T36" s="413"/>
-      <c r="U36" s="413"/>
-      <c r="V36" s="413"/>
-      <c r="W36" s="413"/>
-      <c r="X36" s="413"/>
+      <c r="G36" s="422"/>
+      <c r="H36" s="422"/>
+      <c r="I36" s="422"/>
+      <c r="J36" s="422"/>
+      <c r="K36" s="422"/>
+      <c r="L36" s="422"/>
+      <c r="M36" s="422"/>
+      <c r="N36" s="422"/>
+      <c r="O36" s="422"/>
+      <c r="P36" s="422"/>
+      <c r="Q36" s="422"/>
+      <c r="R36" s="422"/>
+      <c r="S36" s="422"/>
+      <c r="T36" s="422"/>
+      <c r="U36" s="422"/>
+      <c r="V36" s="422"/>
+      <c r="W36" s="422"/>
+      <c r="X36" s="422"/>
       <c r="AN36" s="236"/>
     </row>
     <row r="37" spans="3:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="413"/>
-      <c r="H37" s="413"/>
-      <c r="I37" s="413"/>
-      <c r="J37" s="413"/>
-      <c r="K37" s="413"/>
-      <c r="L37" s="413"/>
-      <c r="M37" s="413"/>
-      <c r="N37" s="413"/>
-      <c r="O37" s="413"/>
-      <c r="P37" s="413"/>
-      <c r="Q37" s="413"/>
-      <c r="R37" s="413"/>
-      <c r="S37" s="413"/>
-      <c r="T37" s="413"/>
-      <c r="U37" s="413"/>
-      <c r="V37" s="413"/>
-      <c r="W37" s="413"/>
-      <c r="X37" s="413"/>
+      <c r="G37" s="422"/>
+      <c r="H37" s="422"/>
+      <c r="I37" s="422"/>
+      <c r="J37" s="422"/>
+      <c r="K37" s="422"/>
+      <c r="L37" s="422"/>
+      <c r="M37" s="422"/>
+      <c r="N37" s="422"/>
+      <c r="O37" s="422"/>
+      <c r="P37" s="422"/>
+      <c r="Q37" s="422"/>
+      <c r="R37" s="422"/>
+      <c r="S37" s="422"/>
+      <c r="T37" s="422"/>
+      <c r="U37" s="422"/>
+      <c r="V37" s="422"/>
+      <c r="W37" s="422"/>
+      <c r="X37" s="422"/>
       <c r="AN37" s="236"/>
     </row>
     <row r="38" spans="3:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="413"/>
-      <c r="H38" s="413"/>
-      <c r="I38" s="413"/>
-      <c r="J38" s="413"/>
-      <c r="K38" s="413"/>
-      <c r="L38" s="413"/>
-      <c r="M38" s="413"/>
-      <c r="N38" s="413"/>
-      <c r="O38" s="413"/>
-      <c r="P38" s="413"/>
-      <c r="Q38" s="413"/>
-      <c r="R38" s="413"/>
-      <c r="S38" s="413"/>
-      <c r="T38" s="413"/>
-      <c r="U38" s="413"/>
-      <c r="V38" s="413"/>
-      <c r="W38" s="413"/>
-      <c r="X38" s="413"/>
+      <c r="G38" s="422"/>
+      <c r="H38" s="422"/>
+      <c r="I38" s="422"/>
+      <c r="J38" s="422"/>
+      <c r="K38" s="422"/>
+      <c r="L38" s="422"/>
+      <c r="M38" s="422"/>
+      <c r="N38" s="422"/>
+      <c r="O38" s="422"/>
+      <c r="P38" s="422"/>
+      <c r="Q38" s="422"/>
+      <c r="R38" s="422"/>
+      <c r="S38" s="422"/>
+      <c r="T38" s="422"/>
+      <c r="U38" s="422"/>
+      <c r="V38" s="422"/>
+      <c r="W38" s="422"/>
+      <c r="X38" s="422"/>
       <c r="AN38" s="236"/>
     </row>
     <row r="39" spans="3:40" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="413"/>
-      <c r="H39" s="413"/>
-      <c r="I39" s="413"/>
-      <c r="J39" s="413"/>
-      <c r="K39" s="413"/>
-      <c r="L39" s="413"/>
-      <c r="M39" s="413"/>
-      <c r="N39" s="413"/>
-      <c r="O39" s="413"/>
-      <c r="P39" s="413"/>
-      <c r="Q39" s="413"/>
-      <c r="R39" s="413"/>
-      <c r="S39" s="413"/>
-      <c r="T39" s="413"/>
-      <c r="U39" s="413"/>
-      <c r="V39" s="413"/>
-      <c r="W39" s="413"/>
-      <c r="X39" s="413"/>
+      <c r="G39" s="422"/>
+      <c r="H39" s="422"/>
+      <c r="I39" s="422"/>
+      <c r="J39" s="422"/>
+      <c r="K39" s="422"/>
+      <c r="L39" s="422"/>
+      <c r="M39" s="422"/>
+      <c r="N39" s="422"/>
+      <c r="O39" s="422"/>
+      <c r="P39" s="422"/>
+      <c r="Q39" s="422"/>
+      <c r="R39" s="422"/>
+      <c r="S39" s="422"/>
+      <c r="T39" s="422"/>
+      <c r="U39" s="422"/>
+      <c r="V39" s="422"/>
+      <c r="W39" s="422"/>
+      <c r="X39" s="422"/>
       <c r="AN39" s="236"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="197"/>
       <c r="D40" s="197"/>
-      <c r="G40" s="413"/>
-      <c r="H40" s="413"/>
-      <c r="I40" s="413"/>
-      <c r="J40" s="413"/>
-      <c r="K40" s="413"/>
-      <c r="L40" s="413"/>
-      <c r="M40" s="413"/>
-      <c r="N40" s="413"/>
-      <c r="O40" s="413"/>
-      <c r="P40" s="413"/>
-      <c r="Q40" s="413"/>
-      <c r="R40" s="413"/>
-      <c r="S40" s="413"/>
-      <c r="T40" s="413"/>
-      <c r="U40" s="413"/>
-      <c r="V40" s="413"/>
-      <c r="W40" s="413"/>
-      <c r="X40" s="413"/>
+      <c r="G40" s="422"/>
+      <c r="H40" s="422"/>
+      <c r="I40" s="422"/>
+      <c r="J40" s="422"/>
+      <c r="K40" s="422"/>
+      <c r="L40" s="422"/>
+      <c r="M40" s="422"/>
+      <c r="N40" s="422"/>
+      <c r="O40" s="422"/>
+      <c r="P40" s="422"/>
+      <c r="Q40" s="422"/>
+      <c r="R40" s="422"/>
+      <c r="S40" s="422"/>
+      <c r="T40" s="422"/>
+      <c r="U40" s="422"/>
+      <c r="V40" s="422"/>
+      <c r="W40" s="422"/>
+      <c r="X40" s="422"/>
       <c r="AN40" s="197"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -11542,13 +11542,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
@@ -11565,6 +11558,13 @@
     <mergeCell ref="AC19:AM19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
